--- a/week-2/2-4-more-complex-calculations/more-complex-calculations-warm-up.xlsx
+++ b/week-2/2-4-more-complex-calculations/more-complex-calculations-warm-up.xlsx
@@ -84,10 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,18 +103,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,12 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -147,22 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -466,16 +445,16 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -492,29 +471,26 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f ca="1">RANDBETWEEN(500,1000)</f>
-        <v>959</v>
-      </c>
-      <c r="C2" s="5">
+        <v>855</v>
+      </c>
+      <c r="C2" s="4">
         <f ca="1">ROUND(B2*(RANDBETWEEN(65,125)/100),-2)</f>
         <v>900</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f ca="1">B2/C2</f>
-        <v>1.0655555555555556</v>
-      </c>
-      <c r="E2" s="7">
-        <f ca="1">VLOOKUP(D2,$G$2:$I$6,3,TRUE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0.69</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -522,29 +498,26 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B11" ca="1" si="0">RANDBETWEEN(500,1000)</f>
-        <v>573</v>
-      </c>
-      <c r="C3" s="5">
+        <v>698</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C11" ca="1" si="1">ROUND(B3*(RANDBETWEEN(65,125)/100),-2)</f>
-        <v>500</v>
-      </c>
-      <c r="D3" s="6">
+        <v>800</v>
+      </c>
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D11" ca="1" si="2">B3/C3</f>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E11" ca="1" si="3">VLOOKUP(D3,$G$2:$I$6,3,TRUE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="3">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="2">
         <v>0.7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.79</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -552,29 +525,26 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C4" s="5">
+        <v>772</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="D4" s="6">
+        <v>700</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="3">
+        <v>1.1028571428571428</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="2">
         <v>0.8</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.89</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -582,29 +552,26 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>921</v>
-      </c>
-      <c r="C5" s="5">
+        <v>849</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="D5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1512500000000001</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="2">
         <v>0.9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.99</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -612,29 +579,26 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>888</v>
-      </c>
-      <c r="C6" s="5">
+        <v>514</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="D6" s="6">
+        <v>400</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.48</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="3">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -642,104 +606,89 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>665</v>
-      </c>
-      <c r="C7" s="5">
+        <v>551</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>600</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1083333333333334</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
+        <v>0.91833333333333333</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>979</v>
-      </c>
-      <c r="C8" s="5">
+        <v>668</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3985714285714286</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>899.99900000000002</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>900</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <f>B9/C9</f>
         <v>0.99999888888888888</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>833</v>
-      </c>
-      <c r="C10" s="5">
+        <v>776</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="D10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
-      </c>
+        <v>1.2933333333333332</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>628</v>
-      </c>
-      <c r="C11" s="5">
+        <v>638</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="D11" s="6">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89714285714285713</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
-      </c>
+        <v>1.276</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
